--- a/biology/Zoologie/Draco/Draco.xlsx
+++ b/biology/Zoologie/Draco/Draco.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Draco est un genre de sauriens de la famille des Agamidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Draco est un genre de sauriens de la famille des Agamidae.
 Les espèces de ce genre sont appelées Dragons volants.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 41 espèces de ce genre se rencontrent en Asie du Sud-Est, en Asie du Sud et dans le sud de l'Asie de l'Est[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 41 espèces de ce genre se rencontrent en Asie du Sud-Est, en Asie du Sud et dans le sud de l'Asie de l'Est.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Histoire de la découverte</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carl Linnaeus a décrit le genre en 1758, l' espèce type étant Draco volans . Le nom du genre vient du terme latin désignant les dragons mythologiques . Au début et au milieu du 20e siècle, il y avait une controverse sur leurs capacités de glisse, certains auteurs suggérant que la patagia était uniquement destinée à être exposée, mais des recherches à la fin des années 1950 ont fermement établi la fonction de vol de la patagia[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carl Linnaeus a décrit le genre en 1758, l' espèce type étant Draco volans . Le nom du genre vient du terme latin désignant les dragons mythologiques . Au début et au milieu du 20e siècle, il y avait une controverse sur leurs capacités de glisse, certains auteurs suggérant que la patagia était uniquement destinée à être exposée, mais des recherches à la fin des années 1950 ont fermement établi la fonction de vol de la patagia.
 </t>
         </is>
       </c>
@@ -574,12 +590,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Dragons volants sont des lézards arboricoles planants des forêts tropicales asiatiques.
 Ils mesurent généralement entre 19 et 23 centimètres et se nourrissent de fourmis et de termites grâce à leur langue gluante.
 Durant la saison des amours, les femelles s'aventurent sur le sol afin d'y pondre entre un et cinq œufs.
-Ils sont dotés d'une paire d'ailes qui sont en fait des côtes reliées entre elles par une membrane ornée de motifs de couleurs vives tandis que le reste du corps est gris. Ces ailes leur permettent de planer sur des distances allant de 7 à 10 mètres afin de se déplacer rapidement d'arbre en arbre[3]. Au repos, les ailes des dragons volants sont repliées et elles ne se voient pas, les dragons volants ressemblent alors à n'importe quel lézard de couleur grisâtre. Le dragon volant est un modèle de l'adaptation à la vie arboricole qui conduit nombre d'espèces à planer (écureuils, serpents). Le dragon volant y parvient grâce à ses côtes très allongées qui soutiennent les ailes.
+Ils sont dotés d'une paire d'ailes qui sont en fait des côtes reliées entre elles par une membrane ornée de motifs de couleurs vives tandis que le reste du corps est gris. Ces ailes leur permettent de planer sur des distances allant de 7 à 10 mètres afin de se déplacer rapidement d'arbre en arbre. Au repos, les ailes des dragons volants sont repliées et elles ne se voient pas, les dragons volants ressemblent alors à n'importe quel lézard de couleur grisâtre. Le dragon volant est un modèle de l'adaptation à la vie arboricole qui conduit nombre d'espèces à planer (écureuils, serpents). Le dragon volant y parvient grâce à ses côtes très allongées qui soutiennent les ailes.
 </t>
         </is>
       </c>
@@ -608,9 +626,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de Draco sont largement distribuées dans les forêts d'Asie du Sud-Est, avec une espèce, Draco dussumieri , habitant le sud de l'Inde[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de Draco sont largement distribuées dans les forêts d'Asie du Sud-Est, avec une espèce, Draco dussumieri , habitant le sud de l'Inde.
 </t>
         </is>
       </c>
@@ -639,9 +659,11 @@
           <t>Habitat et écologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les membres de Draco sont principalement arboricoles , habitant les forêts tropicales humides et ne se trouvent presque jamais sur le sol de la forêt[2]. Ils sont insectivores , se nourrissant principalement de fourmis et de termites[5]. La couleur du patagium est fortement corrélée à la couleur des feuilles tombantes locales, probablement comme camouflage contre les oiseaux prédateurs[6].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les membres de Draco sont principalement arboricoles , habitant les forêts tropicales humides et ne se trouvent presque jamais sur le sol de la forêt. Ils sont insectivores , se nourrissant principalement de fourmis et de termites. La couleur du patagium est fortement corrélée à la couleur des feuilles tombantes locales, probablement comme camouflage contre les oiseaux prédateurs.
 </t>
         </is>
       </c>
@@ -670,9 +692,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (9 septembre 2014)[7] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (9 septembre 2014) :
 Draco abbreviatus Hardwicke &amp; Gray, 1827
 Draco beccarii Peters &amp; Doria, 1878
 Draco biaro Lazell, 1987
@@ -741,7 +765,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Linnaeus, 1758 : Systema naturae per regna tria naturae, secundum classes, ordines, genera, species, cum characteribus, differentiis, synonymis, locis, ed. 10 (texte intégral).</t>
         </is>
